--- a/results/ML_All/yield(MPa)_ml.xlsx
+++ b/results/ML_All/yield(MPa)_ml.xlsx
@@ -513,12 +513,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>{'max_depth': 20, 'n_estimators': 100}</t>
+          <t>{'max_depth': 20, 'n_estimators': 50}</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>{'learning_rate': 0.1, 'max_depth': 3, 'n_estimators': 100}</t>
+          <t>{'learning_rate': 0.1, 'max_depth': 3, 'n_estimators': 200}</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -538,7 +538,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>{'activation': 'leaky_relu', 'b_random_vec_range': [0, 10], 'lam': 1, 'n_layer': 16, 'n_nodes': 128, 'random_seed': 327, 'same_feature': True, 'w_random_vec_range': [-10, 10]}</t>
+          <t>{'activation': 'leaky_relu', 'b_random_vec_range': [0, 10], 'lam': 2, 'n_layer': 16, 'n_nodes': 128, 'random_seed': 911, 'same_feature': True, 'w_random_vec_range': [-10, 10]}</t>
         </is>
       </c>
     </row>
@@ -561,13 +561,13 @@
         <v>0.0874140648011833</v>
       </c>
       <c r="F3" t="n">
-        <v>0.08684145092278217</v>
+        <v>0.08881932908997739</v>
       </c>
       <c r="G3" t="n">
-        <v>0.09281278366783775</v>
+        <v>0.09121419654056975</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1034361678989755</v>
+        <v>0.1049163036361207</v>
       </c>
       <c r="I3" t="n">
         <v>0.08515629682201215</v>
@@ -576,7 +576,7 @@
         <v>0.08846773949564102</v>
       </c>
       <c r="K3" t="n">
-        <v>0.03586767166815456</v>
+        <v>0.0357367781029535</v>
       </c>
     </row>
     <row r="4">
@@ -598,13 +598,13 @@
         <v>0.5102691294942121</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5210852669771027</v>
+        <v>0.4997195810875087</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4469604438514895</v>
+        <v>0.4562974940407168</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3296010103221474</v>
+        <v>0.3108353015635962</v>
       </c>
       <c r="I4" t="n">
         <v>0.5311631223652785</v>
@@ -613,7 +613,7 @@
         <v>0.5003266010651375</v>
       </c>
       <c r="K4" t="n">
-        <v>0.9050695861306883</v>
+        <v>0.9079935044898744</v>
       </c>
     </row>
     <row r="5">
@@ -635,13 +635,13 @@
         <v>40.21143550368016</v>
       </c>
       <c r="F5" t="n">
-        <v>33.77680386223017</v>
+        <v>37.82304280483131</v>
       </c>
       <c r="G5" t="n">
-        <v>33.86526094408508</v>
+        <v>32.47377899778003</v>
       </c>
       <c r="H5" t="n">
-        <v>52.33334203259985</v>
+        <v>48.29575720014626</v>
       </c>
       <c r="I5" t="n">
         <v>31.12460220386027</v>
@@ -650,7 +650,7 @@
         <v>33.93534397028451</v>
       </c>
       <c r="K5" t="n">
-        <v>10.55407755083599</v>
+        <v>11.78003579801157</v>
       </c>
     </row>
   </sheetData>

--- a/results/ML_All/yield(MPa)_ml.xlsx
+++ b/results/ML_All/yield(MPa)_ml.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -513,17 +513,17 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>{'max_depth': 20, 'n_estimators': 50}</t>
+          <t>{'max_depth': 50, 'n_estimators': 50}</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>{'learning_rate': 0.1, 'max_depth': 3, 'n_estimators': 200}</t>
+          <t>{'learning_rate': 0.1, 'max_depth': 3, 'n_estimators': 100}</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>{'learning_rate': 1, 'n_estimators': 50}</t>
+          <t>{'learning_rate': 1, 'n_estimators': 100}</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -538,7 +538,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>{'activation': 'leaky_relu', 'b_random_vec_range': [0, 10], 'lam': 2, 'n_layer': 16, 'n_nodes': 128, 'random_seed': 911, 'same_feature': True, 'w_random_vec_range': [-10, 10]}</t>
+          <t>{'activation': 'leaky_relu', 'b_random_vec_range': [0, 10], 'lam': 2, 'n_layer': 16, 'n_nodes': 128, 'random_seed': 882, 'same_feature': True, 'w_random_vec_range': [-10, 10]}</t>
         </is>
       </c>
     </row>
@@ -549,34 +549,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1088263207289417</v>
+        <v>0.1078316630187899</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1216448348637615</v>
+        <v>0.1200915680019607</v>
       </c>
       <c r="D3" t="n">
-        <v>0.117258474766845</v>
+        <v>0.1157733381862321</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0874140648011833</v>
+        <v>0.08532260496695201</v>
       </c>
       <c r="F3" t="n">
-        <v>0.08881932908997739</v>
+        <v>0.07994515816766538</v>
       </c>
       <c r="G3" t="n">
-        <v>0.09121419654056975</v>
+        <v>0.08277524828396099</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1049163036361207</v>
+        <v>0.09537684150853717</v>
       </c>
       <c r="I3" t="n">
-        <v>0.08515629682201215</v>
+        <v>0.08381964103540558</v>
       </c>
       <c r="J3" t="n">
-        <v>0.08846773949564102</v>
+        <v>0.08341334576730942</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0357367781029535</v>
+        <v>0.03765903314938047</v>
       </c>
     </row>
     <row r="4">
@@ -586,34 +586,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2135614682992166</v>
+        <v>0.2233501807304878</v>
       </c>
       <c r="C4" t="n">
-        <v>0.06072583295927645</v>
+        <v>0.078317987091215</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1167209370526364</v>
+        <v>0.1312474590069004</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5102691294942121</v>
+        <v>0.5162473323301832</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4997195810875087</v>
+        <v>0.5760342119476762</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4562974940407168</v>
+        <v>0.5495628755824622</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3108353015635962</v>
+        <v>0.4025244311519659</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5311631223652785</v>
+        <v>0.5138205292733218</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5003266010651375</v>
+        <v>0.5434218072769883</v>
       </c>
       <c r="K4" t="n">
-        <v>0.9079935044898744</v>
+        <v>0.8832398449700054</v>
       </c>
     </row>
     <row r="5">
@@ -623,34 +623,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>50.93889648849951</v>
+        <v>48.60246420385555</v>
       </c>
       <c r="C5" t="n">
-        <v>68.14218673037564</v>
+        <v>65.30119490085931</v>
       </c>
       <c r="D5" t="n">
-        <v>64.76647576608427</v>
+        <v>62.27375119029092</v>
       </c>
       <c r="E5" t="n">
-        <v>40.21143550368016</v>
+        <v>39.15986619907513</v>
       </c>
       <c r="F5" t="n">
-        <v>37.82304280483131</v>
+        <v>30.93111460380483</v>
       </c>
       <c r="G5" t="n">
-        <v>32.47377899778003</v>
+        <v>31.56129552824202</v>
       </c>
       <c r="H5" t="n">
-        <v>48.29575720014626</v>
+        <v>44.53880581129712</v>
       </c>
       <c r="I5" t="n">
-        <v>31.12460220386027</v>
+        <v>29.48935885561542</v>
       </c>
       <c r="J5" t="n">
-        <v>33.93534397028451</v>
+        <v>32.25064957194685</v>
       </c>
       <c r="K5" t="n">
-        <v>11.78003579801157</v>
+        <v>11.51816879022205</v>
       </c>
     </row>
   </sheetData>
